--- a/Cluster2.xlsx
+++ b/Cluster2.xlsx
@@ -692,1287 +692,1287 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.07558553225153</v>
+        <v>21.76858819608876</v>
       </c>
       <c r="B2" t="n">
-        <v>13.26801791930248</v>
+        <v>12.67655234796155</v>
       </c>
       <c r="C2" t="n">
-        <v>11.69244413157817</v>
+        <v>10.72276259012166</v>
       </c>
       <c r="D2" t="n">
-        <v>11.06617595386891</v>
+        <v>10.58405778830764</v>
       </c>
       <c r="E2" t="n">
-        <v>11.69962384814651</v>
+        <v>11.4790487368642</v>
       </c>
       <c r="F2" t="n">
-        <v>9.240089496083398</v>
+        <v>9.225634491884335</v>
       </c>
       <c r="G2" t="n">
-        <v>9.583923593764483</v>
+        <v>9.908500863877363</v>
       </c>
       <c r="H2" t="n">
-        <v>10.46178979474808</v>
+        <v>10.88913082168109</v>
       </c>
       <c r="I2" t="n">
-        <v>10.45173836041983</v>
+        <v>10.71020701541351</v>
       </c>
       <c r="J2" t="n">
-        <v>10.76077413859486</v>
+        <v>10.76660980899394</v>
       </c>
       <c r="K2" t="n">
-        <v>10.79349193043232</v>
+        <v>10.73975908967059</v>
       </c>
       <c r="L2" t="n">
-        <v>11.33671952986406</v>
+        <v>12.02009397502825</v>
       </c>
       <c r="M2" t="n">
-        <v>11.23402803270992</v>
+        <v>11.86187123577944</v>
       </c>
       <c r="N2" t="n">
-        <v>10.37012130201908</v>
+        <v>11.07030633501368</v>
       </c>
       <c r="O2" t="n">
-        <v>10.86336226036394</v>
+        <v>11.29194052164429</v>
       </c>
       <c r="P2" t="n">
-        <v>10.53599014582998</v>
+        <v>10.86852476250607</v>
       </c>
       <c r="Q2" t="n">
-        <v>11.23329863536927</v>
+        <v>11.49100996421223</v>
       </c>
       <c r="R2" t="n">
-        <v>11.90729939353502</v>
+        <v>12.69416113140134</v>
       </c>
       <c r="S2" t="n">
-        <v>13.69328464422437</v>
+        <v>13.32142174171437</v>
       </c>
       <c r="T2" t="n">
-        <v>11.12629148827695</v>
+        <v>11.38998811667674</v>
       </c>
       <c r="U2" t="n">
-        <v>10.28961202686779</v>
+        <v>10.86229288423628</v>
       </c>
       <c r="V2" t="n">
-        <v>12.50794168962349</v>
+        <v>12.62258169390072</v>
       </c>
       <c r="W2" t="n">
-        <v>11.94571782239345</v>
+        <v>12.327365012869</v>
       </c>
       <c r="X2" t="n">
-        <v>11.15948377126117</v>
+        <v>11.34821566268698</v>
       </c>
       <c r="Y2" t="n">
-        <v>11.28671299952711</v>
+        <v>11.51802354818229</v>
       </c>
       <c r="Z2" t="n">
-        <v>11.93764036585519</v>
+        <v>12.24188601497855</v>
       </c>
       <c r="AA2" t="n">
-        <v>13.54185437793251</v>
+        <v>12.87013275536073</v>
       </c>
       <c r="AB2" t="n">
-        <v>10.14322042101799</v>
+        <v>10.84534242998532</v>
       </c>
       <c r="AC2" t="n">
-        <v>11.69534539850665</v>
+        <v>12.30598031936645</v>
       </c>
       <c r="AD2" t="n">
-        <v>10.85493426796984</v>
+        <v>11.31739470360689</v>
       </c>
       <c r="AE2" t="n">
-        <v>11.5987618018033</v>
+        <v>12.18507660469037</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.41771153395567</v>
+        <v>11.63444567172012</v>
       </c>
       <c r="AG2" t="n">
-        <v>11.01812940409139</v>
+        <v>11.38736233321474</v>
       </c>
       <c r="AH2" t="n">
-        <v>11.5385877961746</v>
+        <v>12.11218581107326</v>
       </c>
       <c r="AI2" t="n">
-        <v>11.04605621821062</v>
+        <v>11.47703634277562</v>
       </c>
       <c r="AJ2" t="n">
-        <v>10.67699010539494</v>
+        <v>11.42553902363186</v>
       </c>
       <c r="AK2" t="n">
-        <v>12.41569227969379</v>
+        <v>12.97948734517309</v>
       </c>
       <c r="AL2" t="n">
-        <v>11.15121532609185</v>
+        <v>11.84924800700547</v>
       </c>
       <c r="AM2" t="n">
-        <v>12.16038034727999</v>
+        <v>12.72412543886233</v>
       </c>
       <c r="AN2" t="n">
-        <v>11.12298537291943</v>
+        <v>11.63826070692083</v>
       </c>
       <c r="AO2" t="n">
-        <v>14.22709055438877</v>
+        <v>14.69925046410935</v>
       </c>
       <c r="AP2" t="n">
-        <v>11.1013256833731</v>
+        <v>11.54377037096531</v>
       </c>
       <c r="AQ2" t="n">
-        <v>11.53758809200004</v>
+        <v>11.8532281796633</v>
       </c>
       <c r="AR2" t="n">
-        <v>10.638878914266</v>
+        <v>11.07640167347974</v>
       </c>
       <c r="AS2" t="n">
-        <v>11.09288833816779</v>
+        <v>11.47802568946576</v>
       </c>
       <c r="AT2" t="n">
-        <v>12.35824974762038</v>
+        <v>12.82772398441639</v>
       </c>
       <c r="AU2" t="n">
-        <v>10.96305353481514</v>
+        <v>11.37430226400108</v>
       </c>
       <c r="AV2" t="n">
-        <v>11.68566000551492</v>
+        <v>12.09502725058171</v>
       </c>
       <c r="AW2" t="n">
-        <v>11.38780904066191</v>
+        <v>11.82014350419722</v>
       </c>
       <c r="AX2" t="n">
-        <v>11.00154456383609</v>
+        <v>11.41325658014089</v>
       </c>
       <c r="AY2" t="n">
-        <v>11.36508401172767</v>
+        <v>11.82183299026111</v>
       </c>
       <c r="AZ2" t="n">
-        <v>11.42028095035947</v>
+        <v>11.81639720185385</v>
       </c>
       <c r="BA2" t="n">
-        <v>11.18453656908668</v>
+        <v>11.72725400823347</v>
       </c>
       <c r="BB2" t="n">
-        <v>11.24105630423435</v>
+        <v>11.73486690040714</v>
       </c>
       <c r="BC2" t="n">
-        <v>11.16075557262058</v>
+        <v>11.79747819201607</v>
       </c>
       <c r="BD2" t="n">
-        <v>10.94718197298615</v>
+        <v>11.36675681490161</v>
       </c>
       <c r="BE2" t="n">
-        <v>11.24150336748656</v>
+        <v>11.73545030197017</v>
       </c>
       <c r="BF2" t="n">
-        <v>11.93147784325343</v>
+        <v>12.53591799680745</v>
       </c>
       <c r="BG2" t="n">
-        <v>11.42327215228915</v>
+        <v>11.90252395245512</v>
       </c>
       <c r="BH2" t="n">
-        <v>10.71002297401947</v>
+        <v>11.19543323069189</v>
       </c>
       <c r="BI2" t="n">
-        <v>12.18760908646356</v>
+        <v>12.71419956131589</v>
       </c>
       <c r="BJ2" t="n">
-        <v>12.39180182118518</v>
+        <v>13.08040743775459</v>
       </c>
       <c r="BK2" t="n">
-        <v>11.87453528228664</v>
+        <v>12.8679265741203</v>
       </c>
       <c r="BL2" t="n">
-        <v>10.4960322741098</v>
+        <v>11.29271964727941</v>
       </c>
       <c r="BM2" t="n">
-        <v>11.92872493168505</v>
+        <v>12.47453312398755</v>
       </c>
       <c r="BN2" t="n">
-        <v>11.35639463612071</v>
+        <v>12.04793604088484</v>
       </c>
       <c r="BO2" t="n">
-        <v>10.79791957217707</v>
+        <v>11.51745233432491</v>
       </c>
       <c r="BP2" t="n">
-        <v>11.60773814264292</v>
+        <v>12.0689733366931</v>
       </c>
       <c r="BQ2" t="n">
-        <v>10.3443963133908</v>
+        <v>10.82496979189632</v>
       </c>
       <c r="BR2" t="n">
-        <v>12.73662469371952</v>
+        <v>12.85495177845954</v>
       </c>
       <c r="BS2" t="n">
-        <v>12.99997294104193</v>
+        <v>13.72519814633539</v>
       </c>
       <c r="BT2" t="n">
-        <v>12.77827342261141</v>
+        <v>12.88379283944106</v>
       </c>
       <c r="BU2" t="n">
-        <v>11.9676031774601</v>
+        <v>12.22776263229875</v>
       </c>
       <c r="BV2" t="n">
-        <v>12.16781502764279</v>
+        <v>12.52021219713095</v>
       </c>
       <c r="BW2" t="n">
-        <v>11.65354858521473</v>
+        <v>11.62901094431497</v>
       </c>
       <c r="BX2" t="n">
-        <v>11.69944014554134</v>
+        <v>12.06675784621693</v>
       </c>
       <c r="BY2" t="n">
-        <v>11.43946689460914</v>
+        <v>11.85861611242</v>
       </c>
       <c r="BZ2" t="n">
-        <v>11.37621438793483</v>
+        <v>11.93189143413978</v>
       </c>
       <c r="CA2" t="n">
-        <v>11.2470744837308</v>
+        <v>11.46564051800411</v>
       </c>
       <c r="CB2" t="n">
-        <v>10.83917409126499</v>
+        <v>11.62551715998392</v>
       </c>
       <c r="CC2" t="n">
-        <v>12.13501565384794</v>
+        <v>12.31738131894973</v>
       </c>
       <c r="CD2" t="n">
-        <v>11.16418791027258</v>
+        <v>11.6382382914859</v>
       </c>
       <c r="CE2" t="n">
-        <v>11.49328692455356</v>
+        <v>11.79964823532831</v>
       </c>
       <c r="CF2" t="n">
-        <v>11.60059142885016</v>
+        <v>11.75618927658591</v>
       </c>
       <c r="CG2" t="n">
-        <v>11.14360271432076</v>
+        <v>11.55421592765046</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20.38652718237109</v>
+        <v>20.05750047625838</v>
       </c>
       <c r="B3" t="n">
-        <v>12.81898536542682</v>
+        <v>12.266699977082</v>
       </c>
       <c r="C3" t="n">
-        <v>10.65870957614975</v>
+        <v>10.07680677679047</v>
       </c>
       <c r="D3" t="n">
-        <v>10.38698241897563</v>
+        <v>10.16676938757694</v>
       </c>
       <c r="E3" t="n">
-        <v>11.88033538921792</v>
+        <v>11.62076776523889</v>
       </c>
       <c r="F3" t="n">
-        <v>8.926877389666144</v>
+        <v>8.950464740988432</v>
       </c>
       <c r="G3" t="n">
-        <v>10.13761387841795</v>
+        <v>10.48203908871224</v>
       </c>
       <c r="H3" t="n">
-        <v>11.09657415607264</v>
+        <v>11.44818744083227</v>
       </c>
       <c r="I3" t="n">
-        <v>10.05567078171812</v>
+        <v>10.20387692498174</v>
       </c>
       <c r="J3" t="n">
-        <v>9.792078885722017</v>
+        <v>9.960332768592998</v>
       </c>
       <c r="K3" t="n">
-        <v>10.56681230514324</v>
+        <v>10.7880058268069</v>
       </c>
       <c r="L3" t="n">
-        <v>10.51641098593264</v>
+        <v>11.07484572273606</v>
       </c>
       <c r="M3" t="n">
-        <v>10.71287245650275</v>
+        <v>11.21355372802859</v>
       </c>
       <c r="N3" t="n">
-        <v>10.88302501158698</v>
+        <v>11.39042961840651</v>
       </c>
       <c r="O3" t="n">
-        <v>10.88522529329363</v>
+        <v>11.28310165151733</v>
       </c>
       <c r="P3" t="n">
-        <v>10.65789989648565</v>
+        <v>11.11257346433285</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.51007836809762</v>
+        <v>10.74082542054473</v>
       </c>
       <c r="R3" t="n">
-        <v>11.76710165400694</v>
+        <v>12.18823058059955</v>
       </c>
       <c r="S3" t="n">
-        <v>12.00541318541486</v>
+        <v>12.0025946957775</v>
       </c>
       <c r="T3" t="n">
-        <v>10.80228047370045</v>
+        <v>11.07332212565836</v>
       </c>
       <c r="U3" t="n">
-        <v>10.40177098775573</v>
+        <v>10.87014077836963</v>
       </c>
       <c r="V3" t="n">
-        <v>12.43405949061882</v>
+        <v>12.73459109701998</v>
       </c>
       <c r="W3" t="n">
-        <v>11.61730937512137</v>
+        <v>12.00337997560683</v>
       </c>
       <c r="X3" t="n">
-        <v>11.1653244067292</v>
+        <v>11.51581409910295</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.96685686431074</v>
+        <v>11.30051167208728</v>
       </c>
       <c r="Z3" t="n">
-        <v>11.64741105203957</v>
+        <v>11.88035308201726</v>
       </c>
       <c r="AA3" t="n">
-        <v>11.91281257641767</v>
+        <v>11.80572920086768</v>
       </c>
       <c r="AB3" t="n">
-        <v>10.5274634025837</v>
+        <v>11.01382988437244</v>
       </c>
       <c r="AC3" t="n">
-        <v>11.60996524715802</v>
+        <v>12.03383227923025</v>
       </c>
       <c r="AD3" t="n">
-        <v>11.41239209458966</v>
+        <v>11.88271273985223</v>
       </c>
       <c r="AE3" t="n">
-        <v>11.68248826071066</v>
+        <v>12.19520690926586</v>
       </c>
       <c r="AF3" t="n">
-        <v>11.33342368484905</v>
+        <v>11.71230555411054</v>
       </c>
       <c r="AG3" t="n">
-        <v>11.46871856605479</v>
+        <v>11.94765621083134</v>
       </c>
       <c r="AH3" t="n">
-        <v>11.63344198277539</v>
+        <v>12.14870752932061</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.43561658804586</v>
+        <v>11.90794267567044</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11.35053763108644</v>
+        <v>11.99742431205504</v>
       </c>
       <c r="AK3" t="n">
-        <v>12.54084592717269</v>
+        <v>13.09749676815037</v>
       </c>
       <c r="AL3" t="n">
-        <v>11.43209372833223</v>
+        <v>12.04900268611055</v>
       </c>
       <c r="AM3" t="n">
-        <v>12.15080435497782</v>
+        <v>12.66627691027072</v>
       </c>
       <c r="AN3" t="n">
-        <v>11.30966190234446</v>
+        <v>11.82556465246205</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.2924498638056</v>
+        <v>13.76982645228639</v>
       </c>
       <c r="AP3" t="n">
-        <v>11.64613913591067</v>
+        <v>12.13778254548986</v>
       </c>
       <c r="AQ3" t="n">
-        <v>11.31859299150928</v>
+        <v>11.72510730491619</v>
       </c>
       <c r="AR3" t="n">
-        <v>11.33516454604944</v>
+        <v>11.81812939261758</v>
       </c>
       <c r="AS3" t="n">
-        <v>11.35719909812738</v>
+        <v>11.81067794595284</v>
       </c>
       <c r="AT3" t="n">
-        <v>12.39529631110906</v>
+        <v>12.82447590011406</v>
       </c>
       <c r="AU3" t="n">
-        <v>11.43812230278288</v>
+        <v>11.90330223692627</v>
       </c>
       <c r="AV3" t="n">
-        <v>11.89663696850356</v>
+        <v>12.33191850142783</v>
       </c>
       <c r="AW3" t="n">
-        <v>11.72912255375351</v>
+        <v>12.18192494595522</v>
       </c>
       <c r="AX3" t="n">
-        <v>11.46951458943385</v>
+        <v>11.93017063258663</v>
       </c>
       <c r="AY3" t="n">
-        <v>11.66857114444403</v>
+        <v>12.16009671515275</v>
       </c>
       <c r="AZ3" t="n">
-        <v>11.67015167492492</v>
+        <v>12.13228577551663</v>
       </c>
       <c r="BA3" t="n">
-        <v>11.66974946122633</v>
+        <v>12.14282445245969</v>
       </c>
       <c r="BB3" t="n">
-        <v>11.66769293099841</v>
+        <v>12.13376913947108</v>
       </c>
       <c r="BC3" t="n">
-        <v>11.64434251035501</v>
+        <v>12.18395663804374</v>
       </c>
       <c r="BD3" t="n">
-        <v>11.43764939716589</v>
+        <v>11.90653082962169</v>
       </c>
       <c r="BE3" t="n">
-        <v>11.6287426787051</v>
+        <v>12.12193081263936</v>
       </c>
       <c r="BF3" t="n">
-        <v>12.14406438213227</v>
+        <v>12.63324889186911</v>
       </c>
       <c r="BG3" t="n">
-        <v>11.76397009429445</v>
+        <v>12.23358395606306</v>
       </c>
       <c r="BH3" t="n">
-        <v>11.33193929034308</v>
+        <v>11.82013528858553</v>
       </c>
       <c r="BI3" t="n">
-        <v>12.30952221166602</v>
+        <v>12.78119121988357</v>
       </c>
       <c r="BJ3" t="n">
-        <v>12.4288881708637</v>
+        <v>12.97134964996369</v>
       </c>
       <c r="BK3" t="n">
-        <v>12.0652696759232</v>
+        <v>12.77128958890876</v>
       </c>
       <c r="BL3" t="n">
-        <v>11.25602313258367</v>
+        <v>11.88180884918563</v>
       </c>
       <c r="BM3" t="n">
-        <v>12.1210107973933</v>
+        <v>12.60241735414468</v>
       </c>
       <c r="BN3" t="n">
-        <v>11.79042212973192</v>
+        <v>12.33146907717437</v>
       </c>
       <c r="BO3" t="n">
-        <v>11.43323706226987</v>
+        <v>12.00309676050531</v>
       </c>
       <c r="BP3" t="n">
-        <v>11.8886772274147</v>
+        <v>12.32840154376189</v>
       </c>
       <c r="BQ3" t="n">
-        <v>11.11495882422551</v>
+        <v>11.59490741878012</v>
       </c>
       <c r="BR3" t="n">
-        <v>12.36770025822127</v>
+        <v>12.71734917528472</v>
       </c>
       <c r="BS3" t="n">
-        <v>12.75343393269682</v>
+        <v>13.30755284199238</v>
       </c>
       <c r="BT3" t="n">
-        <v>12.36785600448079</v>
+        <v>12.69578700425624</v>
       </c>
       <c r="BU3" t="n">
-        <v>11.9461234927656</v>
+        <v>12.34436126145499</v>
       </c>
       <c r="BV3" t="n">
-        <v>12.05465009709886</v>
+        <v>12.49957929095254</v>
       </c>
       <c r="BW3" t="n">
-        <v>11.78057189370247</v>
+        <v>12.02687106760542</v>
       </c>
       <c r="BX3" t="n">
-        <v>11.82323091329773</v>
+        <v>12.2771907557075</v>
       </c>
       <c r="BY3" t="n">
-        <v>11.76668255025726</v>
+        <v>12.21301975648147</v>
       </c>
       <c r="BZ3" t="n">
-        <v>11.76753658496144</v>
+        <v>12.27413506983594</v>
       </c>
       <c r="CA3" t="n">
-        <v>11.56587912409793</v>
+        <v>11.93881083699965</v>
       </c>
       <c r="CB3" t="n">
-        <v>11.47117516278042</v>
+        <v>12.05938622986045</v>
       </c>
       <c r="CC3" t="n">
-        <v>12.03774127588329</v>
+        <v>12.40348931468133</v>
       </c>
       <c r="CD3" t="n">
-        <v>11.60296662817127</v>
+        <v>12.07095876817693</v>
       </c>
       <c r="CE3" t="n">
-        <v>11.72257970036865</v>
+        <v>12.132090833635</v>
       </c>
       <c r="CF3" t="n">
-        <v>11.7524251875898</v>
+        <v>12.09556927001587</v>
       </c>
       <c r="CG3" t="n">
-        <v>11.55798898630299</v>
+        <v>12.01246004247181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>19.43086921617174</v>
+        <v>19.2214194281168</v>
       </c>
       <c r="B4" t="n">
-        <v>14.19332917764061</v>
+        <v>13.63919747157082</v>
       </c>
       <c r="C4" t="n">
-        <v>13.15513266532218</v>
+        <v>12.34158825237352</v>
       </c>
       <c r="D4" t="n">
-        <v>12.44663008357498</v>
+        <v>12.1142005526043</v>
       </c>
       <c r="E4" t="n">
-        <v>12.64860146886053</v>
+        <v>12.62499195747605</v>
       </c>
       <c r="F4" t="n">
-        <v>10.63043018280715</v>
+        <v>10.86427924542416</v>
       </c>
       <c r="G4" t="n">
-        <v>11.25116528432266</v>
+        <v>11.83905547024692</v>
       </c>
       <c r="H4" t="n">
-        <v>12.10452990808299</v>
+        <v>12.77602575249663</v>
       </c>
       <c r="I4" t="n">
-        <v>11.97012889847667</v>
+        <v>12.53660161525467</v>
       </c>
       <c r="J4" t="n">
-        <v>12.76840673347188</v>
+        <v>13.0904205616537</v>
       </c>
       <c r="K4" t="n">
-        <v>12.79466002333756</v>
+        <v>13.16052821927656</v>
       </c>
       <c r="L4" t="n">
-        <v>12.62649828994161</v>
+        <v>13.58079080487324</v>
       </c>
       <c r="M4" t="n">
-        <v>12.68146803861773</v>
+        <v>13.56498810305865</v>
       </c>
       <c r="N4" t="n">
-        <v>12.33776594780295</v>
+        <v>13.3219975371757</v>
       </c>
       <c r="O4" t="n">
-        <v>12.86659014200981</v>
+        <v>13.55653285508341</v>
       </c>
       <c r="P4" t="n">
-        <v>12.68365293674692</v>
+        <v>13.27142752883813</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.12287378751036</v>
+        <v>13.61336530870902</v>
       </c>
       <c r="R4" t="n">
-        <v>12.85103389891492</v>
+        <v>13.8593584738422</v>
       </c>
       <c r="S4" t="n">
-        <v>15.48840565482318</v>
+        <v>15.56213840867727</v>
       </c>
       <c r="T4" t="n">
-        <v>13.23097522741533</v>
+        <v>13.76950653523062</v>
       </c>
       <c r="U4" t="n">
-        <v>12.27880501994503</v>
+        <v>13.10469742666594</v>
       </c>
       <c r="V4" t="n">
-        <v>14.63732861591249</v>
+        <v>15.09039379931803</v>
       </c>
       <c r="W4" t="n">
-        <v>13.74441988436959</v>
+        <v>14.37133105933145</v>
       </c>
       <c r="X4" t="n">
-        <v>13.26713872544959</v>
+        <v>13.73763114392182</v>
       </c>
       <c r="Y4" t="n">
-        <v>13.28244745716366</v>
+        <v>13.7560258913925</v>
       </c>
       <c r="Z4" t="n">
-        <v>13.60833416937102</v>
+        <v>14.19125893947512</v>
       </c>
       <c r="AA4" t="n">
-        <v>15.25923936373301</v>
+        <v>15.11223357434402</v>
       </c>
       <c r="AB4" t="n">
-        <v>11.97759796098096</v>
+        <v>12.89326025545798</v>
       </c>
       <c r="AC4" t="n">
-        <v>12.93206597171182</v>
+        <v>13.76774374572701</v>
       </c>
       <c r="AD4" t="n">
-        <v>12.76837893915059</v>
+        <v>13.51578193824943</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.08259379668823</v>
+        <v>13.91535528196407</v>
       </c>
       <c r="AF4" t="n">
-        <v>13.54066439095248</v>
+        <v>14.02853868818522</v>
       </c>
       <c r="AG4" t="n">
-        <v>13.16439865411574</v>
+        <v>13.82615252650781</v>
       </c>
       <c r="AH4" t="n">
-        <v>13.20321993844695</v>
+        <v>14.01204119738024</v>
       </c>
       <c r="AI4" t="n">
-        <v>13.11316450667827</v>
+        <v>13.79998192025468</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.41055255834004</v>
+        <v>13.39154401765773</v>
       </c>
       <c r="AK4" t="n">
-        <v>13.87131826248612</v>
+        <v>14.69579812549293</v>
       </c>
       <c r="AL4" t="n">
-        <v>12.75542442105855</v>
+        <v>13.66699584004545</v>
       </c>
       <c r="AM4" t="n">
-        <v>13.25141543424824</v>
+        <v>14.1019210366257</v>
       </c>
       <c r="AN4" t="n">
-        <v>12.89264753905969</v>
+        <v>13.66261244654431</v>
       </c>
       <c r="AO4" t="n">
-        <v>14.64447274798536</v>
+        <v>15.36671539725521</v>
       </c>
       <c r="AP4" t="n">
-        <v>13.1389403267948</v>
+        <v>13.85999720099615</v>
       </c>
       <c r="AQ4" t="n">
-        <v>13.34735950513649</v>
+        <v>13.91268189804778</v>
       </c>
       <c r="AR4" t="n">
-        <v>12.67384500245774</v>
+        <v>13.34432182220691</v>
       </c>
       <c r="AS4" t="n">
-        <v>13.09751860066671</v>
+        <v>13.73269988558483</v>
       </c>
       <c r="AT4" t="n">
-        <v>13.70923896165124</v>
+        <v>14.44668052526707</v>
       </c>
       <c r="AU4" t="n">
-        <v>13.04727672987723</v>
+        <v>13.71450441042921</v>
       </c>
       <c r="AV4" t="n">
-        <v>13.56400413341192</v>
+        <v>14.25632068031206</v>
       </c>
       <c r="AW4" t="n">
-        <v>13.27472160303417</v>
+        <v>13.96539040469099</v>
       </c>
       <c r="AX4" t="n">
-        <v>13.04235517581667</v>
+        <v>13.72095690886719</v>
       </c>
       <c r="AY4" t="n">
-        <v>13.37653491339997</v>
+        <v>14.08566126582453</v>
       </c>
       <c r="AZ4" t="n">
-        <v>13.51561703535504</v>
+        <v>14.19819880434273</v>
       </c>
       <c r="BA4" t="n">
-        <v>12.84611440570831</v>
+        <v>13.65509037439615</v>
       </c>
       <c r="BB4" t="n">
-        <v>13.06813466116781</v>
+        <v>13.82953383430598</v>
       </c>
       <c r="BC4" t="n">
-        <v>12.88989192948083</v>
+        <v>13.75725751475011</v>
       </c>
       <c r="BD4" t="n">
-        <v>12.99259853412495</v>
+        <v>13.66709853615463</v>
       </c>
       <c r="BE4" t="n">
-        <v>13.1910915507264</v>
+        <v>13.94527179778892</v>
       </c>
       <c r="BF4" t="n">
-        <v>13.07379061817954</v>
+        <v>13.94056038099016</v>
       </c>
       <c r="BG4" t="n">
-        <v>13.26544694742364</v>
+        <v>14.02351503610926</v>
       </c>
       <c r="BH4" t="n">
-        <v>12.68651008739037</v>
+        <v>13.424354786292</v>
       </c>
       <c r="BI4" t="n">
-        <v>13.51158593102713</v>
+        <v>14.30508694822044</v>
       </c>
       <c r="BJ4" t="n">
-        <v>13.30597154691049</v>
+        <v>14.20849724735322</v>
       </c>
       <c r="BK4" t="n">
-        <v>13.00269376228111</v>
+        <v>14.13383383181247</v>
       </c>
       <c r="BL4" t="n">
-        <v>12.27064002995868</v>
+        <v>13.2477887298199</v>
       </c>
       <c r="BM4" t="n">
-        <v>13.46616206412199</v>
+        <v>14.2417162517482</v>
       </c>
       <c r="BN4" t="n">
-        <v>12.72922500409969</v>
+        <v>13.65460972810822</v>
       </c>
       <c r="BO4" t="n">
-        <v>12.49864785165337</v>
+        <v>13.42550818606646</v>
       </c>
       <c r="BP4" t="n">
-        <v>13.37044888429911</v>
+        <v>14.0837676283987</v>
       </c>
       <c r="BQ4" t="n">
-        <v>12.41763329421878</v>
+        <v>13.14425229569611</v>
       </c>
       <c r="BR4" t="n">
-        <v>14.78337394767864</v>
+        <v>15.26287926540968</v>
       </c>
       <c r="BS4" t="n">
-        <v>13.68575529788546</v>
+        <v>14.64273296365377</v>
       </c>
       <c r="BT4" t="n">
-        <v>14.90421657450809</v>
+        <v>15.34264175473483</v>
       </c>
       <c r="BU4" t="n">
-        <v>14.08130454297667</v>
+        <v>14.63086212622088</v>
       </c>
       <c r="BV4" t="n">
-        <v>14.26281966654839</v>
+        <v>14.90316061688524</v>
       </c>
       <c r="BW4" t="n">
-        <v>13.80180442122018</v>
+        <v>14.07201846224877</v>
       </c>
       <c r="BX4" t="n">
-        <v>13.75446681655607</v>
+        <v>14.37826769240192</v>
       </c>
       <c r="BY4" t="n">
-        <v>13.30032890508606</v>
+        <v>13.93632619306337</v>
       </c>
       <c r="BZ4" t="n">
-        <v>13.10778050680871</v>
+        <v>13.83493072926456</v>
       </c>
       <c r="CA4" t="n">
-        <v>13.36026468764343</v>
+        <v>13.86117317085598</v>
       </c>
       <c r="CB4" t="n">
-        <v>12.31624730308969</v>
+        <v>13.28742708985468</v>
       </c>
       <c r="CC4" t="n">
-        <v>14.2594614235981</v>
+        <v>14.76710525970132</v>
       </c>
       <c r="CD4" t="n">
-        <v>13.06972318370068</v>
+        <v>13.82376957758018</v>
       </c>
       <c r="CE4" t="n">
-        <v>13.57070158734711</v>
+        <v>14.1460411768755</v>
       </c>
       <c r="CF4" t="n">
-        <v>13.73972291231927</v>
+        <v>14.1835573927276</v>
       </c>
       <c r="CG4" t="n">
-        <v>13.14699331022765</v>
+        <v>13.83087996833957</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>23.00860967932653</v>
+        <v>22.64415467148284</v>
       </c>
       <c r="B5" t="n">
-        <v>12.5351300842177</v>
+        <v>12.02660656523028</v>
       </c>
       <c r="C5" t="n">
-        <v>10.94281248934068</v>
+        <v>10.16440868306869</v>
       </c>
       <c r="D5" t="n">
-        <v>10.7489008518737</v>
+        <v>10.45561989020362</v>
       </c>
       <c r="E5" t="n">
-        <v>11.47717500408889</v>
+        <v>11.36000629291364</v>
       </c>
       <c r="F5" t="n">
-        <v>9.392825607086559</v>
+        <v>9.530015446747981</v>
       </c>
       <c r="G5" t="n">
-        <v>9.524619791535541</v>
+        <v>10.0855580677941</v>
       </c>
       <c r="H5" t="n">
-        <v>10.48230709586368</v>
+        <v>11.1102789543256</v>
       </c>
       <c r="I5" t="n">
-        <v>10.80379438496026</v>
+        <v>11.22636694659132</v>
       </c>
       <c r="J5" t="n">
-        <v>10.80104271691657</v>
+        <v>11.09909486789822</v>
       </c>
       <c r="K5" t="n">
-        <v>10.86558074241096</v>
+        <v>11.10327305921903</v>
       </c>
       <c r="L5" t="n">
-        <v>12.23889280690886</v>
+        <v>13.06894718430466</v>
       </c>
       <c r="M5" t="n">
-        <v>12.0326878147315</v>
+        <v>12.81225213108067</v>
       </c>
       <c r="N5" t="n">
-        <v>11.01270954773867</v>
+        <v>11.96207499658008</v>
       </c>
       <c r="O5" t="n">
-        <v>11.12177329090954</v>
+        <v>11.82839514893994</v>
       </c>
       <c r="P5" t="n">
-        <v>10.71087218862812</v>
+        <v>11.31019183836831</v>
       </c>
       <c r="Q5" t="n">
-        <v>11.4438214097361</v>
+        <v>11.94160119566563</v>
       </c>
       <c r="R5" t="n">
-        <v>12.90442981957028</v>
+        <v>13.79041487610399</v>
       </c>
       <c r="S5" t="n">
-        <v>13.42601707848341</v>
+        <v>13.30460264429141</v>
       </c>
       <c r="T5" t="n">
-        <v>11.3661395975973</v>
+        <v>11.90914979220845</v>
       </c>
       <c r="U5" t="n">
-        <v>10.72510603998621</v>
+        <v>11.54685453968911</v>
       </c>
       <c r="V5" t="n">
-        <v>12.27766402119561</v>
+        <v>12.62142118165925</v>
       </c>
       <c r="W5" t="n">
-        <v>12.21045039892693</v>
+        <v>12.75137956552356</v>
       </c>
       <c r="X5" t="n">
-        <v>11.15560060848256</v>
+        <v>11.60203621858543</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.30978406756796</v>
+        <v>11.74306035885842</v>
       </c>
       <c r="Z5" t="n">
-        <v>12.29664906313923</v>
+        <v>12.70608021926674</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.39963475212847</v>
+        <v>13.00941215070887</v>
       </c>
       <c r="AB5" t="n">
-        <v>10.69819882324042</v>
+        <v>11.5999278862279</v>
       </c>
       <c r="AC5" t="n">
-        <v>12.52324761837628</v>
+        <v>13.24884251037356</v>
       </c>
       <c r="AD5" t="n">
-        <v>11.14348346723156</v>
+        <v>11.78116533809026</v>
       </c>
       <c r="AE5" t="n">
-        <v>12.14387246967202</v>
+        <v>12.84998527574237</v>
       </c>
       <c r="AF5" t="n">
-        <v>11.4242426725686</v>
+        <v>11.88200178866377</v>
       </c>
       <c r="AG5" t="n">
-        <v>11.04160232402836</v>
+        <v>11.62913274283648</v>
       </c>
       <c r="AH5" t="n">
-        <v>12.00966729503194</v>
+        <v>12.73039754003339</v>
       </c>
       <c r="AI5" t="n">
-        <v>11.18153740232991</v>
+        <v>11.84577128297155</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11.19056622699716</v>
+        <v>12.07256028298287</v>
       </c>
       <c r="AK5" t="n">
-        <v>12.94407480874139</v>
+        <v>13.61157744286007</v>
       </c>
       <c r="AL5" t="n">
-        <v>11.68327297422608</v>
+        <v>12.51964781262077</v>
       </c>
       <c r="AM5" t="n">
-        <v>12.98877844936625</v>
+        <v>13.62994800964009</v>
       </c>
       <c r="AN5" t="n">
-        <v>11.5118859795646</v>
+        <v>12.17620319271856</v>
       </c>
       <c r="AO5" t="n">
-        <v>15.26193404188123</v>
+        <v>15.79160360003479</v>
       </c>
       <c r="AP5" t="n">
-        <v>11.28884773545467</v>
+        <v>11.94116708943069</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11.76432639431113</v>
+        <v>12.24031568426125</v>
       </c>
       <c r="AR5" t="n">
-        <v>10.78227000588383</v>
+        <v>11.46575558333897</v>
       </c>
       <c r="AS5" t="n">
-        <v>11.28288568442269</v>
+        <v>11.90673100635327</v>
       </c>
       <c r="AT5" t="n">
-        <v>12.93551702696602</v>
+        <v>13.51530554541937</v>
       </c>
       <c r="AU5" t="n">
-        <v>11.06401827917025</v>
+        <v>11.70244282419576</v>
       </c>
       <c r="AV5" t="n">
-        <v>11.88161397405323</v>
+        <v>12.44096296234458</v>
       </c>
       <c r="AW5" t="n">
-        <v>11.59004718444877</v>
+        <v>12.19978555172414</v>
       </c>
       <c r="AX5" t="n">
-        <v>11.13006440003403</v>
+        <v>11.7509521383869</v>
       </c>
       <c r="AY5" t="n">
-        <v>11.42545239151517</v>
+        <v>12.07047684763525</v>
       </c>
       <c r="AZ5" t="n">
-        <v>11.40515524796576</v>
+        <v>11.9911049965817</v>
       </c>
       <c r="BA5" t="n">
-        <v>11.65244523318768</v>
+        <v>12.326884460731</v>
       </c>
       <c r="BB5" t="n">
-        <v>11.57560909223536</v>
+        <v>12.22598104823017</v>
       </c>
       <c r="BC5" t="n">
-        <v>11.58683246434063</v>
+        <v>12.38312992957185</v>
       </c>
       <c r="BD5" t="n">
-        <v>11.05511152730209</v>
+        <v>11.6955785976325</v>
       </c>
       <c r="BE5" t="n">
-        <v>11.41856942217294</v>
+        <v>12.09656146129178</v>
       </c>
       <c r="BF5" t="n">
-        <v>12.73599258216069</v>
+        <v>13.43379312807282</v>
       </c>
       <c r="BG5" t="n">
-        <v>11.65448222361952</v>
+        <v>12.27079094877645</v>
       </c>
       <c r="BH5" t="n">
-        <v>10.93179411948867</v>
+        <v>11.63333389610623</v>
       </c>
       <c r="BI5" t="n">
-        <v>12.73885651375819</v>
+        <v>13.35795599029592</v>
       </c>
       <c r="BJ5" t="n">
-        <v>13.28307784370045</v>
+        <v>14.06192218522678</v>
       </c>
       <c r="BK5" t="n">
-        <v>12.78797757325774</v>
+        <v>13.91260485312389</v>
       </c>
       <c r="BL5" t="n">
-        <v>10.96966023311643</v>
+        <v>11.95381057798991</v>
       </c>
       <c r="BM5" t="n">
-        <v>12.40143527233281</v>
+        <v>13.08055337100705</v>
       </c>
       <c r="BN5" t="n">
-        <v>12.05256311286883</v>
+        <v>12.86366289911578</v>
       </c>
       <c r="BO5" t="n">
-        <v>11.32838637970599</v>
+        <v>12.2188123744899</v>
       </c>
       <c r="BP5" t="n">
-        <v>11.97897836369742</v>
+        <v>12.59735827341419</v>
       </c>
       <c r="BQ5" t="n">
-        <v>10.61866251550487</v>
+        <v>11.37062680357676</v>
       </c>
       <c r="BR5" t="n">
-        <v>12.45068389602322</v>
+        <v>12.7794036388589</v>
       </c>
       <c r="BS5" t="n">
-        <v>14.06855864150932</v>
+        <v>14.8748388525779</v>
       </c>
       <c r="BT5" t="n">
-        <v>12.47061262550064</v>
+        <v>12.7909729503955</v>
       </c>
       <c r="BU5" t="n">
-        <v>11.83471087719442</v>
+        <v>12.29999065747934</v>
       </c>
       <c r="BV5" t="n">
-        <v>12.03474653815586</v>
+        <v>12.56599877132607</v>
       </c>
       <c r="BW5" t="n">
-        <v>11.50320568440816</v>
+        <v>11.76004063783459</v>
       </c>
       <c r="BX5" t="n">
-        <v>11.64803905532368</v>
+        <v>12.21463016939362</v>
       </c>
       <c r="BY5" t="n">
-        <v>11.65627143832368</v>
+        <v>12.28325035313108</v>
       </c>
       <c r="BZ5" t="n">
-        <v>11.71120420883314</v>
+        <v>12.45565338588973</v>
       </c>
       <c r="CA5" t="n">
-        <v>11.15338469242489</v>
+        <v>11.59682062846996</v>
       </c>
       <c r="CB5" t="n">
-        <v>11.52486037066443</v>
+        <v>12.43489396158787</v>
       </c>
       <c r="CC5" t="n">
-        <v>11.90605548257291</v>
+        <v>12.30556277449348</v>
       </c>
       <c r="CD5" t="n">
-        <v>11.44178242894798</v>
+        <v>12.08641712860428</v>
       </c>
       <c r="CE5" t="n">
-        <v>11.53737051793086</v>
+        <v>12.06053456867411</v>
       </c>
       <c r="CF5" t="n">
-        <v>11.46767958053437</v>
+        <v>11.87333377667296</v>
       </c>
       <c r="CG5" t="n">
-        <v>11.28720287517</v>
+        <v>11.89795749520232</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>20.36881625872075</v>
+        <v>20.15592738745202</v>
       </c>
       <c r="B6" t="n">
-        <v>14.24881019983041</v>
+        <v>13.77362953666399</v>
       </c>
       <c r="C6" t="n">
-        <v>13.03475503049591</v>
+        <v>12.48338199135527</v>
       </c>
       <c r="D6" t="n">
-        <v>12.5430550288069</v>
+        <v>12.5115263313222</v>
       </c>
       <c r="E6" t="n">
-        <v>13.28182177348864</v>
+        <v>13.48083053193346</v>
       </c>
       <c r="F6" t="n">
-        <v>11.2480719587487</v>
+        <v>11.79972482414949</v>
       </c>
       <c r="G6" t="n">
-        <v>12.40123169636947</v>
+        <v>13.34922408433175</v>
       </c>
       <c r="H6" t="n">
-        <v>13.35060190710477</v>
+        <v>14.37726850867939</v>
       </c>
       <c r="I6" t="n">
-        <v>12.87623415792091</v>
+        <v>13.79964859522327</v>
       </c>
       <c r="J6" t="n">
-        <v>13.46378554810307</v>
+        <v>14.2503181150509</v>
       </c>
       <c r="K6" t="n">
-        <v>13.96205054071761</v>
+        <v>14.85818958786214</v>
       </c>
       <c r="L6" t="n">
-        <v>13.76298266058469</v>
+        <v>15.08682872610828</v>
       </c>
       <c r="M6" t="n">
-        <v>13.89712033885577</v>
+        <v>15.15414524247944</v>
       </c>
       <c r="N6" t="n">
-        <v>14.04123313572016</v>
+        <v>15.40079100794899</v>
       </c>
       <c r="O6" t="n">
-        <v>14.22876089135482</v>
+        <v>15.35580275673698</v>
       </c>
       <c r="P6" t="n">
-        <v>13.9364707561245</v>
+        <v>14.98082957832431</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.09264319292398</v>
+        <v>14.97420321757813</v>
       </c>
       <c r="R6" t="n">
-        <v>14.50029519395052</v>
+        <v>15.77807713163589</v>
       </c>
       <c r="S6" t="n">
-        <v>16.05048955778749</v>
+        <v>16.56200995641718</v>
       </c>
       <c r="T6" t="n">
-        <v>14.42832141690703</v>
+        <v>15.37480113811865</v>
       </c>
       <c r="U6" t="n">
-        <v>13.69495601022323</v>
+        <v>14.89653763647308</v>
       </c>
       <c r="V6" t="n">
-        <v>15.79348357004537</v>
+        <v>16.67070963425635</v>
       </c>
       <c r="W6" t="n">
-        <v>14.82006232196074</v>
+        <v>15.82608325925382</v>
       </c>
       <c r="X6" t="n">
-        <v>14.48102908029129</v>
+        <v>15.413936755103</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.26356624887362</v>
+        <v>15.143365854905</v>
       </c>
       <c r="Z6" t="n">
-        <v>14.65057595910163</v>
+        <v>15.57378442837991</v>
       </c>
       <c r="AA6" t="n">
-        <v>15.90770306704528</v>
+        <v>16.28431975018171</v>
       </c>
       <c r="AB6" t="n">
-        <v>13.51117729598573</v>
+        <v>14.75927999211182</v>
       </c>
       <c r="AC6" t="n">
-        <v>14.33186879020201</v>
+        <v>15.50758646042656</v>
       </c>
       <c r="AD6" t="n">
-        <v>14.27084289411769</v>
+        <v>15.39649325552828</v>
       </c>
       <c r="AE6" t="n">
-        <v>14.3897738401015</v>
+        <v>15.56013136283755</v>
       </c>
       <c r="AF6" t="n">
-        <v>14.72235821011442</v>
+        <v>15.67268655357976</v>
       </c>
       <c r="AG6" t="n">
-        <v>14.57147432656877</v>
+        <v>15.66164315851064</v>
       </c>
       <c r="AH6" t="n">
-        <v>14.53355631778832</v>
+        <v>15.7043534949744</v>
       </c>
       <c r="AI6" t="n">
-        <v>14.53729197854081</v>
+        <v>15.63220658205174</v>
       </c>
       <c r="AJ6" t="n">
-        <v>14.02153576814989</v>
+        <v>15.34372386751124</v>
       </c>
       <c r="AK6" t="n">
-        <v>15.21384508620918</v>
+        <v>16.40454689977758</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.16948027040967</v>
+        <v>15.43099422405467</v>
       </c>
       <c r="AM6" t="n">
-        <v>14.67194300964944</v>
+        <v>15.86095791565404</v>
       </c>
       <c r="AN6" t="n">
-        <v>14.22826774927421</v>
+        <v>15.38286570554363</v>
       </c>
       <c r="AO6" t="n">
-        <v>15.62891463064976</v>
+        <v>16.69145687430863</v>
       </c>
       <c r="AP6" t="n">
-        <v>14.65240747349208</v>
+        <v>15.78214361299768</v>
       </c>
       <c r="AQ6" t="n">
-        <v>14.41847390654459</v>
+        <v>15.38632597435795</v>
       </c>
       <c r="AR6" t="n">
-        <v>14.18628963319791</v>
+        <v>15.26185062692529</v>
       </c>
       <c r="AS6" t="n">
-        <v>14.48785030534077</v>
+        <v>15.55538456476585</v>
       </c>
       <c r="AT6" t="n">
-        <v>15.00760878490682</v>
+        <v>16.09413047549694</v>
       </c>
       <c r="AU6" t="n">
-        <v>14.48864931479067</v>
+        <v>15.56886892578641</v>
       </c>
       <c r="AV6" t="n">
-        <v>14.88107377515897</v>
+        <v>15.95318717996636</v>
       </c>
       <c r="AW6" t="n">
-        <v>14.63883576405854</v>
+        <v>15.70699675079082</v>
       </c>
       <c r="AX6" t="n">
-        <v>14.47989120723275</v>
+        <v>15.56045384230662</v>
       </c>
       <c r="AY6" t="n">
-        <v>14.69191930238679</v>
+        <v>15.7823658030779</v>
       </c>
       <c r="AZ6" t="n">
-        <v>14.82239074763365</v>
+        <v>15.89823520442705</v>
       </c>
       <c r="BA6" t="n">
-        <v>14.33932324804437</v>
+        <v>15.49366341659915</v>
       </c>
       <c r="BB6" t="n">
-        <v>14.52508600345734</v>
+        <v>15.65124740603764</v>
       </c>
       <c r="BC6" t="n">
-        <v>14.38865769305966</v>
+        <v>15.59646925866322</v>
       </c>
       <c r="BD6" t="n">
-        <v>14.41771384714277</v>
+        <v>15.49670135954523</v>
       </c>
       <c r="BE6" t="n">
-        <v>14.58403521232231</v>
+        <v>15.70660679231402</v>
       </c>
       <c r="BF6" t="n">
-        <v>14.59520849964886</v>
+        <v>15.78344339074094</v>
       </c>
       <c r="BG6" t="n">
-        <v>14.62151727526224</v>
+        <v>15.73547301622046</v>
       </c>
       <c r="BH6" t="n">
-        <v>14.2001077123535</v>
+        <v>15.32081136743843</v>
       </c>
       <c r="BI6" t="n">
-        <v>14.79576033958488</v>
+        <v>15.90653843595622</v>
       </c>
       <c r="BJ6" t="n">
-        <v>14.79632874050787</v>
+        <v>16.00501355791799</v>
       </c>
       <c r="BK6" t="n">
-        <v>14.67380077054136</v>
+        <v>16.10916780734486</v>
       </c>
       <c r="BL6" t="n">
-        <v>13.91428115307033</v>
+        <v>15.21074611547682</v>
       </c>
       <c r="BM6" t="n">
-        <v>14.80666724324923</v>
+        <v>15.91945104618023</v>
       </c>
       <c r="BN6" t="n">
-        <v>14.29410471210559</v>
+        <v>15.53634154578355</v>
       </c>
       <c r="BO6" t="n">
-        <v>14.11535727979121</v>
+        <v>15.37666667647658</v>
       </c>
       <c r="BP6" t="n">
-        <v>14.7719954938895</v>
+        <v>15.85723803243271</v>
       </c>
       <c r="BQ6" t="n">
-        <v>14.0832287305341</v>
+        <v>15.22365722388775</v>
       </c>
       <c r="BR6" t="n">
-        <v>15.79849088973051</v>
+        <v>16.69015984774753</v>
       </c>
       <c r="BS6" t="n">
-        <v>15.284646713926</v>
+        <v>16.55131195744841</v>
       </c>
       <c r="BT6" t="n">
-        <v>15.88733211037334</v>
+        <v>16.75186211014111</v>
       </c>
       <c r="BU6" t="n">
-        <v>15.24742875782271</v>
+        <v>16.21196168827742</v>
       </c>
       <c r="BV6" t="n">
-        <v>15.397466250846</v>
+        <v>16.42606759849675</v>
       </c>
       <c r="BW6" t="n">
-        <v>15.00270314595349</v>
+        <v>15.76182010009805</v>
       </c>
       <c r="BX6" t="n">
-        <v>14.97142470800501</v>
+        <v>15.98714734084349</v>
       </c>
       <c r="BY6" t="n">
-        <v>14.65320052979425</v>
+        <v>15.67341696411452</v>
       </c>
       <c r="BZ6" t="n">
-        <v>14.49416290424065</v>
+        <v>15.56212264850204</v>
       </c>
       <c r="CA6" t="n">
-        <v>14.63316708037931</v>
+        <v>15.55141926441786</v>
       </c>
       <c r="CB6" t="n">
-        <v>13.98183959010355</v>
+        <v>15.25340243921218</v>
       </c>
       <c r="CC6" t="n">
-        <v>15.36930084451589</v>
+        <v>16.29687216801117</v>
       </c>
       <c r="CD6" t="n">
-        <v>14.54182033520277</v>
+        <v>15.67176061768765</v>
       </c>
       <c r="CE6" t="n">
-        <v>14.89867453380838</v>
+        <v>15.89818205137384</v>
       </c>
       <c r="CF6" t="n">
-        <v>14.95926791524801</v>
+        <v>15.85217491320338</v>
       </c>
       <c r="CG6" t="n">
-        <v>14.5531253276631</v>
+        <v>15.63054821276557</v>
       </c>
     </row>
   </sheetData>
